--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>68.09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>77.88</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.57</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.05</v>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.4</v>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.57</v>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.05</v>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2041,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2179,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.49</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8128</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2893</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -753,150 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.65</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7809</t>
+          <t>0.5045</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011203</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢惠添益混合A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1037,32 +923,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0508</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1075,150 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢惠添益混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.7809</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>011203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>永赢惠添益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1795,32 +1567,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1833,36 +1605,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,7 +1783,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1927,36 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>76.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>1.8128</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1965,36 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>1.2893</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2003,36 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.2225</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2041,36 +1927,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2084,128 +2084,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.05</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>40.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>1.3018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.58</t>
+          <t>60.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.3640</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.1674</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>006263</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -847,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +1054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -933,26 +1102,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -971,26 +1140,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -999,6 +1168,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1426,328 +1803,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7809</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011203</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢惠添益混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1544</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢惠添益混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1813,36 +1868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.49</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8128</t>
+          <t>0.7809</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1851,36 +1906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>011203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>永赢惠添益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2893</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1889,32 +1944,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1927,36 +1982,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1975,26 +2030,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2003,36 +2058,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2041,36 +2096,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>011204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>永赢惠添益混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2079,6 +2134,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02883-中海油田服务.xlsx
+++ b/数据整理/stocks/港股/02883-中海油田服务.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -952,214 +1405,6 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1224,36 +1469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +1507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>81.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1310,26 +1555,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1348,26 +1593,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1621,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1803,328 +2256,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7809</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011203</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢惠添益混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1544</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢惠添益混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2190,36 +2321,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.49</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8128</t>
+          <t>0.7809</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2228,36 +2359,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>011203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>永赢惠添益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2893</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2266,32 +2397,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.09</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2304,36 +2435,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2352,26 +2483,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2380,36 +2511,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2418,36 +2549,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>011204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>永赢惠添益混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2456,6 +2587,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
